--- a/documentation/Data_Dictionary.xlsx
+++ b/documentation/Data_Dictionary.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\SuperStore_Project_2023\Superstore_Project_2023\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{633C1901-04C4-4711-B39B-693DA29723E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED8B4A-0B42-47EA-A078-02CB1DD281CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11370" yWindow="-15495" windowWidth="25170" windowHeight="13470" xr2:uid="{382FA251-1A8D-419E-A38A-A6A67DF8F7D6}"/>
+    <workbookView xWindow="144" yWindow="36" windowWidth="22740" windowHeight="12144" xr2:uid="{382FA251-1A8D-419E-A38A-A6A67DF8F7D6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="dictionary" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,15 +35,621 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+  <si>
+    <t>Source Sheet</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Unique identifier for orders</t>
+  </si>
+  <si>
+    <t>order_date</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Date of the order</t>
+  </si>
+  <si>
+    <t>ship_mode</t>
+  </si>
+  <si>
+    <t>Shipping method</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>returns</t>
+  </si>
+  <si>
+    <t>return_date</t>
+  </si>
+  <si>
+    <t>Date of the return</t>
+  </si>
+  <si>
+    <t>reason_returned</t>
+  </si>
+  <si>
+    <t>Reason for the return</t>
+  </si>
+  <si>
+    <t>Damaged</t>
+  </si>
+  <si>
+    <t>AE-2019-1231682</t>
+  </si>
+  <si>
+    <t>Concatenates order_info_id with order_id_number</t>
+  </si>
+  <si>
+    <t>order_info_id</t>
+  </si>
+  <si>
+    <t>AE-2019</t>
+  </si>
+  <si>
+    <t>Not Unique order info</t>
+  </si>
+  <si>
+    <t>Combines two-letter code with year</t>
+  </si>
+  <si>
+    <t>order_id_number</t>
+  </si>
+  <si>
+    <t>OBSERVATIONS</t>
+  </si>
+  <si>
+    <t>Here are a few points to consider for SQL and ML analysis:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Understanding that the concatenation of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_info_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> creates the actual unique identifier (column A, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>) is an important insight for analyzing a dataset. It is common in real-world datasets to have non-unique identifiers that become unique when combined with other variables.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1. SQL Analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: While working with SQL, both </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_info_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can be used to create unique keys for joining tables, filtering, and aggregating data. For instance, a composite primary key, which is a key that consists of two or more columns, can be used to uniquely identify rows in a table.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2. Feature Engineering</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: It may be helpful to create a new feature that combines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_info_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> into a single unique identifier. This can be beneficial when joining tables in an analysis or when preparing data for machine learning.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3. Dimensionality Reduction</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Carefully considering whether to keep or remove these columns is important. If the concatenated unique identifier (column A, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">) captures all the necessary information and there are no other meaningful patterns or trends related to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_info_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> separately, removing them to reduce dimensionality might be a good choice. However, if these columns have additional significance or contribute to the understanding of the data, keeping them for further analysis may be necessary.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4. Machine Learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: In the context of ML, the importance of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_info_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> as features should be analyzed. If these columns do not provide any significant information or improve the predictive power of models, removing them from the feature set can be considered. However, if they carry useful information when combined or individually, keeping them in the analysis is advisable.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">In conclusion, deciding whether to keep or eliminate </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_info_id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.6"/>
+        <color rgb="FF374151"/>
+        <rFont val="Ubuntu Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t>order_id_number</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> depends on the specific context and the insights that can be gained from these features. Their impact on SQL queries and ML models should be carefully analyzed before making a decision.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Some duplicates exist (but product_id column is different) </t>
+  </si>
+  <si>
+    <t>order_weekday</t>
+  </si>
+  <si>
+    <t>Sunday through Saturday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>First Letter is Capitalized</t>
+  </si>
+  <si>
+    <t>order_month</t>
+  </si>
+  <si>
+    <t>January through December</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Same Day, First Class, Standard, Second Class </t>
+  </si>
+  <si>
+    <t>product_id</t>
+  </si>
+  <si>
+    <t>Unique identifier for products</t>
+  </si>
+  <si>
+    <t>TEC-MOT-10001535</t>
+  </si>
+  <si>
+    <t>Combines 2 three-letter codes with a product number</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>Product Category</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Furniture, Office Supplies, Technology</t>
+  </si>
+  <si>
+    <t>sub_category</t>
+  </si>
+  <si>
+    <t>Product Subcategory</t>
+  </si>
+  <si>
+    <t>Phones</t>
+  </si>
+  <si>
+    <t>15 sub_categories</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>Name of Product</t>
+  </si>
+  <si>
+    <t>Motorola Headset. VoIP</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Sales Price of Returned Prodcut</t>
+  </si>
+  <si>
+    <t>Discriptive Name of Product</t>
+  </si>
+  <si>
+    <t>Date the order was placed (or shipped?)</t>
+  </si>
+  <si>
+    <t>Date the return was processed</t>
+  </si>
+  <si>
+    <t>Price of Returned Item</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Profit Margin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Profit (in USD)</t>
+  </si>
+  <si>
+    <t>Profit Margin (in %)</t>
+  </si>
+  <si>
+    <t>Margin Category</t>
+  </si>
+  <si>
+    <t>Bin of Descriptive Categories</t>
+  </si>
+  <si>
+    <t>PM (profit margin)</t>
+  </si>
+  <si>
+    <t>PM &lt; 0: low; 0 &lt;= PM &lt;= 5: medium; PM &gt; 5: high.</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>State of Customer</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>First and Last Name of Cust</t>
+  </si>
+  <si>
+    <t>Nat Gilpin</t>
+  </si>
+  <si>
+    <t>return_quantity</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>number of returned products</t>
+  </si>
+  <si>
+    <t>1, 2, 3</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Not Given, Not Needed, Wrong Color, Wrong Item</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Ubuntu Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +672,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +1017,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05739AF-354D-4EA4-AC0F-6BE1D247899C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1231682</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="9">
+        <v>43831</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="9">
+        <v>43835</v>
+      </c>
+      <c r="F14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="10">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="10">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>77</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="8">
+        <v>3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+    </row>
+    <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A48" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A49" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A50" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A51" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A53" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/documentation/Data_Dictionary.xlsx
+++ b/documentation/Data_Dictionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Documents\SuperStore_Project_2023\Superstore_Project_2023\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DED8B4A-0B42-47EA-A078-02CB1DD281CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D3A89C-B99B-4611-A099-007331925A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="36" windowWidth="22740" windowHeight="12144" xr2:uid="{382FA251-1A8D-419E-A38A-A6A67DF8F7D6}"/>
+    <workbookView xWindow="-13950" yWindow="-16170" windowWidth="28590" windowHeight="15630" xr2:uid="{382FA251-1A8D-419E-A38A-A6A67DF8F7D6}"/>
   </bookViews>
   <sheets>
     <sheet name="dictionary" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="91">
   <si>
     <t>Source Sheet</t>
   </si>
@@ -533,9 +533,6 @@
     <t>Discriptive Name of Product</t>
   </si>
   <si>
-    <t>Date the order was placed (or shipped?)</t>
-  </si>
-  <si>
     <t>Date the return was processed</t>
   </si>
   <si>
@@ -600,6 +597,18 @@
   </si>
   <si>
     <t>Not Given, Not Needed, Wrong Color, Wrong Item</t>
+  </si>
+  <si>
+    <t>Date the order was placed</t>
+  </si>
+  <si>
+    <t>State where the customer is located</t>
+  </si>
+  <si>
+    <t>Name of the customer who made the return</t>
+  </si>
+  <si>
+    <t>Profit/loss associated with the returned item</t>
   </si>
 </sst>
 </file>
@@ -609,7 +618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,6 +660,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -672,7 +695,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,22 +708,27 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1020,7 +1048,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1029,454 +1057,466 @@
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="11">
         <v>1231682</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>43831</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12">
+        <v>43835</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D15" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="13">
+        <v>77.260000000000005</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="13">
+        <v>25.5</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="14">
+        <v>0.33</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D19" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="D20" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="D21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="11">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="9">
-        <v>43835</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="D23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="10">
-        <v>77.260000000000005</v>
-      </c>
-      <c r="F16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="10">
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
-        <v>77</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>84</v>
-      </c>
-      <c r="E22" s="8">
-        <v>3</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
